--- a/biology/Zoologie/Ceratopogonidae/Ceratopogonidae.xlsx
+++ b/biology/Zoologie/Ceratopogonidae/Ceratopogonidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cératopogonidés
 Les Ceratopogonidae (cératopogonidés) sont une famille d'insectes de l'ordre des diptères.
@@ -514,9 +526,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa piqûre qui donne une sensation de brûlure lui a mérité le nom de « brûlot » au Canada francophone[1]. En France, ils sont parfois dénommés par erreur « aoûtats ». Ils portent beaucoup de surnoms : dans le Sud de la France on trouve des noms tirés de l'occitan « arabis » ou « alambis »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa piqûre qui donne une sensation de brûlure lui a mérité le nom de « brûlot » au Canada francophone. En France, ils sont parfois dénommés par erreur « aoûtats ». Ils portent beaucoup de surnoms : dans le Sud de la France on trouve des noms tirés de l'occitan « arabis » ou « alambis ».
 La famille des cératopogonidés est, de beaucoup, la plus grande et la moins connue des familles de diptères hématophages. Toutefois, à l'exception de quelques espèces de Leptoconops, ces espèces de cératopogonides, qui s'attaquent aux êtres humains et au bétail au Canada, appartiennent toutes au genre Culicoides.
 Il existe plus de 50 espèces de ce genre au Canada, et la plupart d'entre elles se nourrissent de sang de mammifères ou d'oiseaux, bien que quelques-unes s'attaquent exclusivement aux reptiles ou aux amphibiens.
 Les autres membres du genre possèdent des pièces buccales atrophiées et ne font sans doute pas de repas sanguin. Outre le genre Culicoides, il existe de nombreux autres genres de Cératopogonides au Canada englobant des centaines d'espèces qui, dans la majorité des cas, n'ont pas encore été identifiées.
@@ -552,7 +566,9 @@
           <t>Espèces dites nuisibles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Même si les espèces de brûlots abondent au Canada, peu d'entre elles, relativement parlant, sont nuisibles. Dans la forêt boréale, particulièrement dans l'est du Québec et dans les provinces de l'Atlantique, la présence de Culicoides sanguisuga et d'autres espèces rendent le camping intolérable dans les régions boisées à la fin de juin et en juillet.
 Dans les Maritimes, au voisinage des marais salés côtiers, Culicoides furens peut être abondant, sans être aussi nuisible que plus au sud aux États-Unis.
@@ -586,7 +602,9 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Selon ITIS :
 Forcipomyiinae
